--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2264156.569273112</v>
+        <v>-2266154.242285957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>188.4780482584486</v>
       </c>
       <c r="I2" t="n">
-        <v>126.1132927303864</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>153.800020088059</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>271.7914714492017</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>99.67868129518061</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>165.0566567996924</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>301.3462705352769</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.7029867244484</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6388745605238</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>139.8939792152982</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>321.8068366204719</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>215.0242579200947</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.5088970641055</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>71.55200892371323</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>55.49649679589988</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>156.2934908831567</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>97.75459595110136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.80693578170187</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>31.94750994786686</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.27142932050975</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>4.012174021609391</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
         <v>42.28735533463131</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2542,7 +2542,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224547</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857224</v>
+        <v>80.48358288857203</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
         <v>42.28735533463131</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>129.788919853962</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4183,13 +4183,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.215519150511</v>
+        <v>1782.250625744513</v>
       </c>
       <c r="C2" t="n">
-        <v>946.2530022100993</v>
+        <v>1413.288108804102</v>
       </c>
       <c r="D2" t="n">
-        <v>587.9873036033489</v>
+        <v>1055.022410197351</v>
       </c>
       <c r="E2" t="n">
-        <v>202.1990510051046</v>
+        <v>669.234157599107</v>
       </c>
       <c r="F2" t="n">
-        <v>195.2535502559012</v>
+        <v>258.2482528094994</v>
       </c>
       <c r="G2" t="n">
-        <v>181.3301461944921</v>
+        <v>244.3248487480903</v>
       </c>
       <c r="H2" t="n">
-        <v>181.3301461944921</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2091.954691190444</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2091.954691190444</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2091.954691190444</v>
+        <v>2168.850465808635</v>
       </c>
       <c r="X2" t="n">
-        <v>2091.954691190444</v>
+        <v>2168.850465808635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1701.815359214633</v>
+        <v>2168.850465808635</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.841510736975</v>
+        <v>154.6285184821631</v>
       </c>
       <c r="C4" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.841510736975</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1920.362466370522</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1546.896708109442</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>1156.75737613363</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.7554128984182</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>195.2500315327869</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286579</v>
+        <v>195.2500315327869</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>913.7382812066351</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
         <v>555.4725825998845</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2030.112026713641</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2030.112026713641</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1677.343371443527</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.877613182447</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>913.7382812066351</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4896,16 +4896,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,16 +5066,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.0842369787848</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1426.641514069303</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1226.721503984855</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1226.721503984855</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1226.721503984855</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.073787876802</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="X13" t="n">
-        <v>991.0842369787848</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.0842369787848</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.6134626728254</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C16" t="n">
-        <v>710.6134626728254</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1341.044057544613</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1341.044057544613</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="V16" t="n">
-        <v>1341.044057544613</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.044057544613</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.054506646595</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.2619275030652</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102529</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102529</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1466.64605848935</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1266.726048404902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878253</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.9259926442952</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>167.1882321880735</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>167.1882321880735</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324571</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>416.2699138005285</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.2699138005285</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
         <v>320.8847398504512</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6361,13 +6361,13 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
         <v>320.8847398504512</v>
@@ -6379,16 +6379,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,31 +7090,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525406</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649699</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,31 +7801,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231153</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>135.4447245059085</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>97.4241474202303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>67.56813980344722</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.08888215032653</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>38.41234348007957</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>231.0265015406911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.25407017523253</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>188.482756447476</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.0250444002354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>78.01684245592594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>97.22213914286783</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.6974813674278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -26314,16 +26314,16 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.04424660707</v>
-      </c>
       <c r="E2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688543</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688543</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
@@ -26335,16 +26335,16 @@
         <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26436,13 +26436,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26454,7 +26454,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-771344.4857749603</v>
+        <v>-771557.8977648389</v>
       </c>
       <c r="C6" t="n">
         <v>-227965.9016033268</v>
@@ -26528,22 +26528,22 @@
         <v>-227965.9016033268</v>
       </c>
       <c r="E6" t="n">
-        <v>-619770.5170255979</v>
+        <v>-619867.9761515702</v>
       </c>
       <c r="F6" t="n">
-        <v>-94610.48054870195</v>
+        <v>-94707.93967467407</v>
       </c>
       <c r="G6" t="n">
-        <v>-94610.48054870195</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="H6" t="n">
-        <v>-94610.4805487019</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="I6" t="n">
         <v>-176287.968505322</v>
       </c>
       <c r="J6" t="n">
-        <v>-298205.6755942025</v>
+        <v>-298205.6755942024</v>
       </c>
       <c r="K6" t="n">
         <v>-121782.4564016095</v>
@@ -26552,7 +26552,7 @@
         <v>-121782.4564016095</v>
       </c>
       <c r="M6" t="n">
-        <v>-256583.4716354467</v>
+        <v>-256583.4716354466</v>
       </c>
       <c r="N6" t="n">
         <v>-176287.968505322</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25.81802351447489</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>77.4494972682113</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>47.8946981821361</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>209.5349519316052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>127.607946538104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>5.527068807633015</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>60.92700504300871</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>36.19990958819463</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>66.73792403452232</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642235</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>693.6972596887387</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
